--- a/python/numpy/data/test.xlsx
+++ b/python/numpy/data/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大地测量学实验\三维\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abcin\code\1xingao\python\numpy\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE4C997-DE76-4BDF-B22E-68F2F939DA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34072B93-5FFD-447D-B4DF-6877C406BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="8805" windowWidth="15210" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1980" windowWidth="11850" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -67,9 +67,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -350,82 +348,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>-1964642.838</v>
+        <v>-1964642.8384</v>
       </c>
       <c r="B1" s="1">
-        <v>4484908.5839999998</v>
+        <v>4484908.5838000001</v>
       </c>
       <c r="C1" s="1">
-        <v>4075486.895</v>
+        <v>4075486.8953999998</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>-1967082.7180000001</v>
+        <v>-1967082.7175</v>
       </c>
       <c r="B2" s="1">
-        <v>4490541.6390000004</v>
+        <v>4490541.6393999998</v>
       </c>
       <c r="C2" s="1">
-        <v>4068048.1570000001</v>
+        <v>4068048.1568999998</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>-1958106.37</v>
+        <v>-1958106.3703999999</v>
       </c>
       <c r="B3" s="1">
-        <v>4482074.1809999999</v>
+        <v>4482074.1807000004</v>
       </c>
       <c r="C3" s="1">
-        <v>4082054.3309999998</v>
+        <v>4082054.3305000002</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>-1958396.993</v>
+        <v>-1958396.9927999999</v>
       </c>
       <c r="B4" s="1">
         <v>4485396.4409999996</v>
       </c>
       <c r="C4" s="1">
-        <v>4077966.301</v>
+        <v>4077966.3010999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>-1953364.4650000001</v>
+        <v>-1953364.4652</v>
       </c>
       <c r="B5" s="1">
-        <v>4481502.6550000003</v>
+        <v>4481502.6553999996</v>
       </c>
       <c r="C5" s="1">
-        <v>4084942.2540000002</v>
+        <v>4084942.2543000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>-1957928.747</v>
+        <v>-1957928.7467</v>
       </c>
       <c r="B6" s="1">
-        <v>4492765.3159999996</v>
+        <v>4492765.3156000003</v>
       </c>
       <c r="C6" s="1">
-        <v>4070011.557</v>
+        <v>4070011.5569000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>-1954403.1562000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4490401.4941999996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4074332.9281000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>-1951867.8824</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4485404.1694999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4081154.5446000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>-1956813.4421000001</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4497507.4666999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4065328.6098000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>-1951778.1544000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4495070.8351999996</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4070465.3177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>-1953427.2187000001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4501107.5060000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4062974.0989000001</v>
       </c>
     </row>
   </sheetData>
